--- a/biology/Botanique/Memecylon_bakossiense/Memecylon_bakossiense.xlsx
+++ b/biology/Botanique/Memecylon_bakossiense/Memecylon_bakossiense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Memecylon bakossiense (R.D. Stone, Ghogue &amp; Cheek) est une plante endémique des plaines camerounaises, découverte dans les monts Bakossi (région du Sud-Ouest) entre 350 et 650 mètres d'altitude. Avec une surface d'habitation de 20 km2 et une population en déclin, elle est considérée par l'UICN comme une espèce en danger critique d'extinction (CR)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Memecylon bakossiense (R.D. Stone, Ghogue &amp; Cheek) est une plante endémique des plaines camerounaises, découverte dans les monts Bakossi (région du Sud-Ouest) entre 350 et 650 mètres d'altitude. Avec une surface d'habitation de 20 km2 et une population en déclin, elle est considérée par l'UICN comme une espèce en danger critique d'extinction (CR).
 </t>
         </is>
       </c>
